--- a/medicine/Psychotrope/Poêlée_montagnarde/Poêlée_montagnarde.xlsx
+++ b/medicine/Psychotrope/Poêlée_montagnarde/Poêlée_montagnarde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Po%C3%AAl%C3%A9e_montagnarde</t>
+          <t>Poêlée_montagnarde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La poêlée montagnarde est un mets savoyard réalisé à base de pommes de terre, de vin blanc et de fromage. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Po%C3%AAl%C3%A9e_montagnarde</t>
+          <t>Poêlée_montagnarde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>La poêlée montagnarde dans la gastronomie savoyarde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce mets fait partie avec le berthoud, la fondue savoyarde et la croûte au fromage des principales recettes de la cuisine savoyarde nécessitant des fromages à pâte pressée cuite et du vin blanc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mets fait partie avec le berthoud, la fondue savoyarde et la croûte au fromage des principales recettes de la cuisine savoyarde nécessitant des fromages à pâte pressée cuite et du vin blanc.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Po%C3%AAl%C3%A9e_montagnarde</t>
+          <t>Poêlée_montagnarde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce mets nécessite des pommes de terre, de l'oignon, des lardons fumés, du vin blanc de Savoie et du fromage d'Abondance[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mets nécessite des pommes de terre, de l'oignon, des lardons fumés, du vin blanc de Savoie et du fromage d'Abondance.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Po%C3%AAl%C3%A9e_montagnarde</t>
+          <t>Poêlée_montagnarde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quand l'oignon émincé est revenu, il y est ajouté les pommes de terre coupées en dés et des lardons jusqu'à ce qu'ils dorent. C'est à ce moment-là que la poêlée est mouillée de vin et recouverte du fromage en lamelle. Elle est poivrée et termine de cuire à feu doux[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand l'oignon émincé est revenu, il y est ajouté les pommes de terre coupées en dés et des lardons jusqu'à ce qu'ils dorent. C'est à ce moment-là que la poêlée est mouillée de vin et recouverte du fromage en lamelle. Elle est poivrée et termine de cuire à feu doux.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Po%C3%AAl%C3%A9e_montagnarde</t>
+          <t>Poêlée_montagnarde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Traditionnellement ce mets s'accompagne du même vin blanc de Savoie qui a servi à sa cuisson.
 </t>
